--- a/fia/provas/20210701/Teste-de-Hipotese Modificado.xlsx
+++ b/fia/provas/20210701/Teste-de-Hipotese Modificado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\provas\20210701\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A7984D-0E90-452A-82DA-CCA5EA13A61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C52D9A-5223-4C3F-ABA4-408BFAC0B57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-465" windowWidth="29040" windowHeight="15990" tabRatio="749" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="749" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intervalo_Confiança=&gt;" sheetId="25" r:id="rId1"/>
@@ -828,6 +828,9 @@
     <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -835,9 +838,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7069,16 +7069,16 @@
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="19" t="s">
@@ -7321,7 +7321,7 @@
   <dimension ref="B1:N8"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7342,34 +7342,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="H1" s="58" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="H1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="3" spans="2:14" ht="15.75">
       <c r="B3" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="18">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="16">
         <f>C4*(C6/SQRT(C5))</f>
-        <v>0.90526858726093706</v>
+        <v>2323.6808465476311</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="15.75">
@@ -7378,18 +7378,18 @@
       </c>
       <c r="C4" s="54">
         <f>NORMSINV(C3+((1-C3)/2))</f>
-        <v>1.9599639845400536</v>
+        <v>2.5758293035488999</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="17">
         <f>C7-F3</f>
-        <v>69.094731412739065</v>
+        <v>21076.319153452368</v>
       </c>
       <c r="K4" s="17">
         <f>C7+F3</f>
-        <v>70.905268587260935</v>
+        <v>25723.680846547632</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>4</v>
@@ -7403,7 +7403,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="2">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>7</v>
@@ -7414,7 +7414,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="2">
-        <v>8</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75">
@@ -7422,7 +7422,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="2">
-        <v>70</v>
+        <v>23400</v>
       </c>
       <c r="J7" s="11"/>
     </row>
@@ -7466,34 +7466,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="H1" s="58" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="H1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="18">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="16">
         <f>C4*(C6/SQRT(C5))</f>
-        <v>13.594330457981798</v>
+        <v>77.496445431487984</v>
       </c>
     </row>
     <row r="4" spans="2:14">
@@ -7502,18 +7502,18 @@
       </c>
       <c r="C4" s="54">
         <f>_xlfn.T.INV(C3+((1-C3)/2),C5-1)</f>
-        <v>1.9611514201705258</v>
+        <v>2.6845556178665237</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="17">
         <f>C7-F3</f>
-        <v>536.40566954201825</v>
+        <v>23322.503554568513</v>
       </c>
       <c r="K4" s="17">
         <f>C7+F3</f>
-        <v>563.59433045798175</v>
+        <v>23477.496445431487</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>4</v>
@@ -7527,7 +7527,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="2">
-        <v>2000</v>
+        <v>48</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>7</v>
@@ -7538,7 +7538,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="2">
-        <v>310</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -7546,7 +7546,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="2">
-        <v>550</v>
+        <v>23400</v>
       </c>
       <c r="J7" s="11"/>
     </row>
@@ -7570,7 +7570,7 @@
   <dimension ref="B1:N8"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7591,34 +7591,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="H1" s="58" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="H1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="35" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="18">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="16">
         <f>C4*(SQRT(C6/C5))</f>
-        <v>2.1842829155817024E-2</v>
+        <v>7.5591717635264163E-2</v>
       </c>
     </row>
     <row r="4" spans="2:14">
@@ -7627,18 +7627,18 @@
       </c>
       <c r="C4" s="54">
         <f>NORMSINV(C3+((1-C3)/2))</f>
-        <v>1.9599639845400536</v>
+        <v>1.6448536269514715</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="56">
         <f>C7-F3</f>
-        <v>0.518157170844183</v>
-      </c>
-      <c r="K4" s="59">
+        <v>4.4408282364735832E-2</v>
+      </c>
+      <c r="K4" s="56">
         <f>C7+F3</f>
-        <v>0.56184282915581707</v>
+        <v>0.19559171763526417</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>4</v>
@@ -7652,7 +7652,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="2">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>7</v>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="C6" s="50">
         <f>C7*(1-C7)</f>
-        <v>0.24840000000000001</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -7672,7 +7672,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="2">
-        <v>0.54</v>
+        <v>0.12</v>
       </c>
       <c r="J7" s="11"/>
     </row>
@@ -7706,16 +7706,16 @@
   </cols>
   <sheetData>
     <row r="13" spans="4:11" ht="26.25">
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7731,7 +7731,7 @@
   <dimension ref="B1:T9"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7760,28 +7760,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="14"/>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="N1" s="58" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="N1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
     </row>
     <row r="2" spans="2:20" s="6" customFormat="1">
       <c r="B2" s="15"/>
@@ -7826,7 +7826,9 @@
       <c r="N3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="2">
+        <v>0.99</v>
+      </c>
       <c r="Q3" s="35" t="s">
         <v>35</v>
       </c>
@@ -7867,7 +7869,7 @@
       </c>
       <c r="O4" s="48">
         <f>1-O3</f>
-        <v>1</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="Q4" s="37" t="s">
         <v>56</v>
@@ -7910,9 +7912,9 @@
       <c r="N5" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="54" t="e">
+      <c r="O5" s="54">
         <f>NORMSINV(O3)</f>
-        <v>#NUM!</v>
+        <v>2.3263478740408408</v>
       </c>
       <c r="Q5" s="38" t="s">
         <v>48</v>
@@ -7943,7 +7945,9 @@
       <c r="N6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="2"/>
+      <c r="O6" s="2">
+        <v>30</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="7"/>
@@ -7986,7 +7990,9 @@
       <c r="N8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2">
+        <v>1050</v>
+      </c>
     </row>
     <row r="9" spans="2:20">
       <c r="G9" s="14"/>
@@ -8012,7 +8018,7 @@
   <dimension ref="B1:T9"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8041,28 +8047,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="14"/>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="N1" s="58" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="N1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
     </row>
     <row r="2" spans="2:20" s="6" customFormat="1">
       <c r="B2" s="15"/>
@@ -8087,13 +8093,13 @@
         <v>39</v>
       </c>
       <c r="C3" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="2">
-        <v>70</v>
+        <v>1.05</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="35" t="s">
@@ -8111,7 +8117,9 @@
       <c r="N3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="2">
+        <v>0.99</v>
+      </c>
       <c r="Q3" s="35" t="s">
         <v>35</v>
       </c>
@@ -8123,14 +8131,14 @@
       </c>
       <c r="C4" s="48">
         <f>1-C3</f>
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="16">
         <f>(F3-C8)/(C7/(SQRT(C6)))</f>
-        <v>0</v>
+        <v>1.3693063937629166</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="35" t="s">
@@ -8152,14 +8160,14 @@
       </c>
       <c r="O4" s="48">
         <f>1-O3</f>
-        <v>1</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="Q4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="16" t="e">
+      <c r="R4" s="16">
         <f>(R3-O8)/(O7/SQRT(O6))</f>
-        <v>#DIV/0!</v>
+        <v>-28.755434269021222</v>
       </c>
     </row>
     <row r="5" spans="2:20">
@@ -8168,14 +8176,14 @@
       </c>
       <c r="C5" s="49">
         <f>_xlfn.T.INV(C4+((1-C4)/2),C6-1)</f>
-        <v>1.9679296690656669</v>
+        <v>2.7563859036706049</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="53">
         <f>IF(F4&gt;=0,2*(1-_xlfn.T.DIST(F4,C6-1, TRUE)),2*(_xlfn.T.DIST(F4,C6-1, TRUE)))</f>
-        <v>1</v>
+        <v>0.18141544108053043</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="35" t="s">
@@ -8195,16 +8203,16 @@
       <c r="N5" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="54" t="e">
+      <c r="O5" s="54">
         <f>_xlfn.T.INV(O3,O6-1)</f>
-        <v>#NUM!</v>
+        <v>2.4620213601504126</v>
       </c>
       <c r="Q5" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="53" t="e">
+      <c r="R5" s="53">
         <f>_xlfn.T.DIST(R4,O6-1, TRUE)</f>
-        <v>#DIV/0!</v>
+        <v>3.6123024050360969E-23</v>
       </c>
     </row>
     <row r="6" spans="2:20">
@@ -8212,7 +8220,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="2">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -8230,7 +8238,9 @@
       <c r="N6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="2"/>
+      <c r="O6" s="2">
+        <v>30</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="7"/>
@@ -8243,7 +8253,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="2">
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="35" t="s">
@@ -8255,7 +8265,9 @@
       <c r="N7" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="2"/>
+      <c r="O7" s="2">
+        <v>0.2</v>
+      </c>
       <c r="T7" s="10" t="s">
         <v>7</v>
       </c>
@@ -8265,7 +8277,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="2">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="44" t="s">
@@ -8277,7 +8289,9 @@
       <c r="N8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="9" spans="2:20">
       <c r="G9" s="14"/>
@@ -8305,7 +8319,7 @@
   <dimension ref="B1:T9"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8334,28 +8348,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="14"/>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="N1" s="58" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="N1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
     </row>
     <row r="2" spans="2:20" s="6" customFormat="1">
       <c r="B2" s="15"/>
@@ -8393,7 +8407,7 @@
         <v>39</v>
       </c>
       <c r="I3" s="8">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>14</v>
@@ -8404,11 +8418,15 @@
       <c r="N3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="2">
+        <v>0.1</v>
+      </c>
       <c r="Q3" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="4" spans="2:20">
       <c r="B4" s="36" t="s">
@@ -8431,28 +8449,28 @@
       </c>
       <c r="I4" s="48">
         <f>1-I3</f>
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="K4" s="37" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="16">
         <f>(L3-I8)/(SQRT((I8*(1-I8)/I6)))</f>
-        <v>3.450327796711774</v>
+        <v>-0.98205723228047348</v>
       </c>
       <c r="N4" s="35" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="48">
         <f>1-O3</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q4" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="12" t="e">
+      <c r="R4" s="12">
         <f>(R3-O8)/(SQRT((O8*(1-O8)/O6)))</f>
-        <v>#DIV/0!</v>
+        <v>-1.0879853497231111</v>
       </c>
     </row>
     <row r="5" spans="2:20">
@@ -8476,28 +8494,28 @@
       </c>
       <c r="I5" s="49">
         <f>NORMSINV(1-I3)</f>
-        <v>1.2815515655446006</v>
+        <v>1.6448536269514715</v>
       </c>
       <c r="K5" s="38" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="53">
         <f>1-_xlfn.NORM.S.DIST(L4, TRUE)</f>
-        <v>2.7995312400308503E-4</v>
+        <v>0.83696417328096007</v>
       </c>
       <c r="N5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="49" t="e">
+      <c r="O5" s="49">
         <f>NORMSINV(O3)</f>
-        <v>#NUM!</v>
+        <v>-1.2815515655446006</v>
       </c>
       <c r="Q5" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="52" t="e">
+      <c r="R5" s="52">
         <f>_xlfn.NORM.S.DIST(R4, TRUE)</f>
-        <v>#DIV/0!</v>
+        <v>0.13830078756299799</v>
       </c>
     </row>
     <row r="6" spans="2:20">
@@ -8513,7 +8531,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -8521,7 +8539,9 @@
       <c r="N6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="2"/>
+      <c r="O6" s="2">
+        <v>50</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -8543,14 +8563,14 @@
       </c>
       <c r="I7" s="50">
         <f>I8*(1-I8)</f>
-        <v>0.21000000000000002</v>
+        <v>0.16589999999999999</v>
       </c>
       <c r="N7" s="35" t="s">
         <v>61</v>
       </c>
       <c r="O7" s="50">
         <f>O8*(1-O8)</f>
-        <v>0</v>
+        <v>0.1056</v>
       </c>
       <c r="T7" s="10" t="s">
         <v>7</v>
@@ -8566,12 +8586,14 @@
         <v>16</v>
       </c>
       <c r="I8" s="2">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="N8" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="9" spans="2:20">
       <c r="G9" s="14"/>

--- a/fia/provas/20210701/Teste-de-Hipotese Modificado.xlsx
+++ b/fia/provas/20210701/Teste-de-Hipotese Modificado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\provas\20210701\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C52D9A-5223-4C3F-ABA4-408BFAC0B57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D85B33E-F19F-4390-A1FE-552E782E2F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="749" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-465" windowWidth="29040" windowHeight="15990" tabRatio="749" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intervalo_Confiança=&gt;" sheetId="25" r:id="rId1"/>
@@ -7321,7 +7321,7 @@
   <dimension ref="B1:N8"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7362,14 +7362,14 @@
         <v>25</v>
       </c>
       <c r="C3" s="18">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="16">
         <f>C4*(C6/SQRT(C5))</f>
-        <v>2323.6808465476311</v>
+        <v>1.6630845892196129</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="15.75">
@@ -7378,18 +7378,18 @@
       </c>
       <c r="C4" s="54">
         <f>NORMSINV(C3+((1-C3)/2))</f>
-        <v>2.5758293035488999</v>
+        <v>1.9599639845400536</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="17">
         <f>C7-F3</f>
-        <v>21076.319153452368</v>
+        <v>23398.336915410779</v>
       </c>
       <c r="K4" s="17">
         <f>C7+F3</f>
-        <v>25723.680846547632</v>
+        <v>23401.663084589221</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>4</v>
@@ -7403,7 +7403,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>7</v>
@@ -7414,7 +7414,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="2">
-        <v>6250</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75">
@@ -7446,7 +7446,7 @@
   <dimension ref="B1:N8"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7486,14 +7486,14 @@
         <v>25</v>
       </c>
       <c r="C3" s="18">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="16">
         <f>C4*(C6/SQRT(C5))</f>
-        <v>77.496445431487984</v>
+        <v>0.40722105871397268</v>
       </c>
     </row>
     <row r="4" spans="2:14">
@@ -7502,18 +7502,18 @@
       </c>
       <c r="C4" s="54">
         <f>_xlfn.T.INV(C3+((1-C3)/2),C5-1)</f>
-        <v>2.6845556178665237</v>
+        <v>1.6456255198576413</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="17">
         <f>C7-F3</f>
-        <v>23322.503554568513</v>
+        <v>27.592778941286028</v>
       </c>
       <c r="K4" s="17">
         <f>C7+F3</f>
-        <v>23477.496445431487</v>
+        <v>28.407221058713972</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>4</v>
@@ -7527,7 +7527,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="2">
-        <v>48</v>
+        <v>1976</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>7</v>
@@ -7538,7 +7538,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="2">
-        <v>200</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -7546,7 +7546,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="2">
-        <v>23400</v>
+        <v>28</v>
       </c>
       <c r="J7" s="11"/>
     </row>
@@ -7730,8 +7730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:T9"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7827,12 +7827,14 @@
         <v>39</v>
       </c>
       <c r="O3" s="2">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="Q3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="2">
+        <v>110</v>
+      </c>
     </row>
     <row r="4" spans="2:20">
       <c r="B4" s="42" t="s">
@@ -7869,14 +7871,14 @@
       </c>
       <c r="O4" s="48">
         <f>1-O3</f>
-        <v>1.0000000000000009E-2</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="Q4" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="16" t="e">
+      <c r="R4" s="16">
         <f>(R3-O8)/(O7/(SQRT(O6)))</f>
-        <v>#DIV/0!</v>
+        <v>-2.7386127875258306</v>
       </c>
     </row>
     <row r="5" spans="2:20">
@@ -7914,14 +7916,14 @@
       </c>
       <c r="O5" s="54">
         <f>NORMSINV(O3)</f>
-        <v>2.3263478740408408</v>
+        <v>1.2815515655446006</v>
       </c>
       <c r="Q5" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="53" t="e">
+      <c r="R5" s="53">
         <f>_xlfn.NORM.S.DIST(R4, TRUE)</f>
-        <v>#DIV/0!</v>
+        <v>3.0849496602720801E-3</v>
       </c>
     </row>
     <row r="6" spans="2:20">
@@ -7970,7 +7972,9 @@
       <c r="N7" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="2"/>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
       <c r="T7" s="10" t="s">
         <v>7</v>
       </c>
@@ -7991,7 +7995,7 @@
         <v>32</v>
       </c>
       <c r="O8" s="2">
-        <v>1050</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:20">
@@ -8018,7 +8022,7 @@
   <dimension ref="B1:T9"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8318,7 +8322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:T9"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
